--- a/biology/Neurosciences/Spinoza_avait_raison/Spinoza_avait_raison.xlsx
+++ b/biology/Neurosciences/Spinoza_avait_raison/Spinoza_avait_raison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Spinoza avait raison : Joie et tristesse, le cerveau des émotions (anglais: Looking for Spinoza: Joy, Sorrow, and the Feeling Brain[1], titre portugais : Ao Encontro de Espinosa) est un essai écrit par Antonio Damasio en 2003.
+Spinoza avait raison : Joie et tristesse, le cerveau des émotions (anglais: Looking for Spinoza: Joy, Sorrow, and the Feeling Brain, titre portugais : Ao Encontro de Espinosa) est un essai écrit par Antonio Damasio en 2003.
 Dans cet essai, Damasio présente une synthèse de ses derniers travaux, hypothèses et découvertes en neuropsychologie, tout en faisant référence à la philosophie de Spinoza qui, selon l'auteur, préfigure brillamment la neurobiologie moderne de l'émotion, du sentiment et du comportement social.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Structure de l'essai</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapitre 1 : Et voici les sentiments
 Chapitre 2 : Des appétits et des émotions
